--- a/xlsx/伯利兹_intext.xlsx
+++ b/xlsx/伯利兹_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="682">
   <si>
     <t>伯利兹</t>
   </si>
@@ -29,7 +29,7 @@
     <t>伯利兹国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_伯利兹</t>
+    <t>政策_政策_美国_伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%9B%BD%E5%BE%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%9A%84%E5%9C%9F%E5%9C%B0</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%8E%8B%E5%AE%A4</t>
   </si>
   <si>
-    <t>英國王室</t>
+    <t>英国王室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%8C%E6%AD%8C</t>
   </si>
   <si>
-    <t>頌歌</t>
+    <t>颂歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%91%E5%A5%B3%E7%8E%8B</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF%E5%B8%82</t>
   </si>
   <si>
-    <t>貝里斯市</t>
+    <t>贝里斯市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E6%B2%B3</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%AD%E9%83%A8%E6%97%B6%E9%97%B4</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -185,37 +185,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%A5%B3%E7%8E%8B</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E5%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>楊可為</t>
+    <t>杨可为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E6%80%BB%E7%90%86</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF%E5%85%83</t>
   </si>
   <si>
-    <t>貝里斯元</t>
+    <t>贝里斯元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.bz</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>洪都拉斯灣</t>
+    <t>洪都拉斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E9%9B%85%E8%AF%AD</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%9B%85%E4%BA%BA</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%A3%AB%E8%92%82%E7%B4%A2%E4%BA%BA</t>
   </si>
   <si>
-    <t>麥士蒂索人</t>
+    <t>麦士蒂索人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E6%B0%B4%E6%A8%B9</t>
   </si>
   <si>
-    <t>墨水樹</t>
+    <t>墨水树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%BA%A2%E6%9C%A8</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%91%89%E6%A1%83%E8%8A%B1%E5%BF%83%E6%9C%A8</t>
   </si>
   <si>
-    <t>大葉桃花心木</t>
+    <t>大叶桃花心木</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BC%E6%BE%A4</t>
   </si>
   <si>
-    <t>沼澤</t>
+    <t>沼泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%BD%98%E6%B2%B3</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E9%9B%A8%E6%9E%97%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶雨林氣候</t>
+    <t>热带雨林气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BC%8A%E6%A0%BC%E7%B4%8D%E8%A5%BF%E5%A5%A7</t>
   </si>
   <si>
-    <t>聖伊格納西奧</t>
+    <t>圣伊格纳西奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>大英國協</t>
+    <t>大英国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%88%B6</t>
@@ -497,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%B7%A6</t>
   </si>
   <si>
-    <t>中間偏左</t>
+    <t>中间偏左</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
   </si>
   <si>
-    <t>中間偏右</t>
+    <t>中间偏右</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%EF%BC%8D%E8%B2%9D%E9%87%8C%E6%96%AF%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中華民國－貝里斯關係</t>
+    <t>中华民国－贝里斯关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E6%B0%B8%E6%B3%89_(%E5%A4%96%E4%BA%A4%E5%AE%98)</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E4%BB%A5%E6%AD%A3</t>
   </si>
   <si>
-    <t>陸以正</t>
+    <t>陆以正</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rodolfo_Lobos_Zamora</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
   </si>
   <si>
-    <t>世界概況</t>
+    <t>世界概况</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -785,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -803,25 +803,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -833,19 +833,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -863,31 +863,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -1169,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -1211,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -1241,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -1259,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -1301,15 +1301,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -1355,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8D%94%E5%A2%83%E5%9F%9F</t>
   </si>
   <si>
-    <t>國協境域</t>
+    <t>国协境域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1367,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>安提瓜和巴布達君主</t>
+    <t>安提瓜和巴布达君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Cook_Islands</t>
@@ -1391,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>錫蘭自治領</t>
+    <t>锡兰自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1457,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>紐芬蘭自治領</t>
+    <t>纽芬兰自治领</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Federation_of_Nigeria</t>
@@ -1469,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅德西亞</t>
+    <t>罗德西亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sierra_Leone_(Commonwealth_realm)</t>
@@ -1553,9 +1547,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
   </si>
   <si>
@@ -1571,9 +1562,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1583,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1625,9 +1613,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -1841,9 +1826,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
@@ -1883,9 +1865,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
   </si>
   <si>
@@ -1961,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1997,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2045,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2069,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2081,7 +2060,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -8429,7 +8408,7 @@
         <v>396</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8919,7 +8898,7 @@
         <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8945,10 +8924,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8974,10 +8953,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9003,10 +8982,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9032,10 +9011,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9061,10 +9040,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9119,10 +9098,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9148,10 +9127,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9177,10 +9156,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9206,10 +9185,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9235,10 +9214,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -9264,10 +9243,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>20</v>
@@ -9293,10 +9272,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9322,10 +9301,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9351,10 +9330,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9380,10 +9359,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9409,10 +9388,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9438,10 +9417,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9467,10 +9446,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9496,10 +9475,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9525,10 +9504,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9554,10 +9533,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9583,10 +9562,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9612,10 +9591,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9641,10 +9620,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9670,10 +9649,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9699,10 +9678,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9728,10 +9707,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9757,10 +9736,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9786,10 +9765,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9815,10 +9794,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9844,10 +9823,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9873,10 +9852,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9902,10 +9881,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9931,10 +9910,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9960,10 +9939,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9989,10 +9968,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10018,10 +9997,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10047,10 +10026,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10076,10 +10055,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10105,10 +10084,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10134,10 +10113,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10163,10 +10142,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10192,10 +10171,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10221,10 +10200,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10250,10 +10229,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>236</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10279,10 +10258,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10308,10 +10287,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10337,10 +10316,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10366,10 +10345,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10395,10 +10374,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10424,10 +10403,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10453,10 +10432,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10482,10 +10461,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10511,10 +10490,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>242</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10540,10 +10519,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10569,10 +10548,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10598,10 +10577,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10627,10 +10606,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10656,10 +10635,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10685,10 +10664,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10714,10 +10693,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10743,10 +10722,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10772,10 +10751,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10801,10 +10780,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10830,10 +10809,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10859,10 +10838,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10888,10 +10867,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -10917,10 +10896,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G293" t="n">
         <v>6</v>
@@ -10946,10 +10925,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10975,10 +10954,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11004,10 +10983,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11033,10 +11012,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11062,10 +11041,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11120,10 +11099,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11149,10 +11128,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11178,10 +11157,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11207,10 +11186,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11236,10 +11215,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11265,10 +11244,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11294,10 +11273,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11323,10 +11302,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11352,10 +11331,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11381,10 +11360,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11410,10 +11389,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11439,10 +11418,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11468,10 +11447,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11497,10 +11476,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11526,10 +11505,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11555,10 +11534,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11584,10 +11563,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>248</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11613,10 +11592,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11642,10 +11621,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11671,10 +11650,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11700,10 +11679,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11729,10 +11708,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11758,10 +11737,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11787,10 +11766,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>378</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11816,10 +11795,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11874,10 +11853,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11903,10 +11882,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11932,10 +11911,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11961,10 +11940,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11990,10 +11969,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12019,10 +11998,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12048,10 +12027,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12077,10 +12056,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12106,10 +12085,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12135,10 +12114,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12164,10 +12143,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12193,10 +12172,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12222,10 +12201,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12251,10 +12230,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12280,10 +12259,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12309,10 +12288,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12338,10 +12317,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12367,10 +12346,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12396,10 +12375,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12425,10 +12404,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12454,10 +12433,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12483,10 +12462,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12512,10 +12491,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12541,10 +12520,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12570,10 +12549,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12599,10 +12578,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F351" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -12628,10 +12607,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F352" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12657,10 +12636,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F353" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12686,10 +12665,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F354" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12715,10 +12694,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F355" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12744,10 +12723,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F356" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12773,10 +12752,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F357" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>

--- a/xlsx/伯利兹_intext.xlsx
+++ b/xlsx/伯利兹_intext.xlsx
@@ -29,7 +29,7 @@
     <t>伯利兹国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_伯利兹</t>
+    <t>体育运动_体育运动_南非_伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%9B%BD%E5%BE%BD</t>
